--- a/mbs-perturbation/nano/svm/nano-svm-linear-results.xlsx
+++ b/mbs-perturbation/nano/svm/nano-svm-linear-results.xlsx
@@ -467,16 +467,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0.45</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0.6206896551724138</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0.9964953271028038</v>
+        <v>0.8334112149532711</v>
       </c>
     </row>
     <row r="3">
@@ -486,16 +486,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.8571428571428571</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>0.2857142857142857</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0.4285714285714285</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>0.9863626201654371</v>
+        <v>0.9738430583501007</v>
       </c>
     </row>
     <row r="4">
@@ -505,16 +505,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.8888888888888888</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0.8421052631578948</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0.9816901408450704</v>
+        <v>0.9788732394366196</v>
       </c>
     </row>
     <row r="5">
@@ -524,16 +524,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.2068965517241379</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0.2448979591836735</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0.527112676056338</v>
+        <v>0.5144366197183098</v>
       </c>
     </row>
     <row r="6">
@@ -543,16 +543,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>0.15</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>0.2307692307692308</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>0.7578638497652582</v>
+        <v>0.7374413145539906</v>
       </c>
     </row>
     <row r="7">
@@ -562,16 +562,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.6905856595511768</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0.3971428571428571</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>0.4734067073709283</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0.8499049227869815</v>
+        <v>0.8076010894024584</v>
       </c>
     </row>
   </sheetData>

--- a/mbs-perturbation/nano/svm/nano-svm-linear-results.xlsx
+++ b/mbs-perturbation/nano/svm/nano-svm-linear-results.xlsx
@@ -476,7 +476,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0.8334112149532711</v>
+        <v>0.5309278350515464</v>
       </c>
     </row>
     <row r="3">
@@ -495,7 +495,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>0.9738430583501007</v>
+        <v>0.8771025501899079</v>
       </c>
     </row>
     <row r="4">
@@ -514,7 +514,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0.9788732394366196</v>
+        <v>0.8132875143184422</v>
       </c>
     </row>
     <row r="5">
@@ -533,7 +533,7 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0.5144366197183098</v>
+        <v>0.8588764657758385</v>
       </c>
     </row>
     <row r="6">
@@ -552,7 +552,7 @@
         <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>0.7374413145539906</v>
+        <v>0.667166621216253</v>
       </c>
     </row>
     <row r="7">
@@ -571,7 +571,7 @@
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0.8076010894024584</v>
+        <v>0.7494721973103977</v>
       </c>
     </row>
   </sheetData>
